--- a/MID/Create-Series/Data.xlsx
+++ b/MID/Create-Series/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-Series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAD3F66-700A-4E49-B90E-59074B214BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618340D7-418D-46C9-98BB-32B45C7C16C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E4EFBF0A-BF54-4357-B72E-863D4763E90B}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +511,7 @@
         <v>4718301460</v>
       </c>
       <c r="B2" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>4718301303</v>

--- a/MID/Create-Series/Data.xlsx
+++ b/MID/Create-Series/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-Series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618340D7-418D-46C9-98BB-32B45C7C16C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69836D49-3B9A-4084-98B7-C8ECB8742139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E4EFBF0A-BF54-4357-B72E-863D4763E90B}"/>
   </bookViews>
@@ -152,7 +152,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -483,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EFD655-6BF5-4EE3-8F7C-E5F535E6860A}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,11 +712,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>4718301303</v>
+      </c>
+      <c r="B22" s="2">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D6 A2:A21">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="A22">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
